--- a/biology/Zoologie/Barbus_semifasciolatus/Barbus_semifasciolatus.xlsx
+++ b/biology/Zoologie/Barbus_semifasciolatus/Barbus_semifasciolatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Puntius semifasciolatus
 Puntius semifasciolatus, également appelé barbus doré ou barbus de schubert est une espèce de poisson de la famille des Cyprinidae.
@@ -514,11 +526,13 @@
           <t>En Aquarium</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le barbus doré est un poisson assez solide. Sa longévité atteint 7 ans. Il est actif autant la nuit que le jour.
 Il doit être tenu en groupe de 4 minimum, car en dessous de ce nombre, il peut se montrer parfois agressif envers les autres espèces.
-Pour son confort, on veillera à placer des massifs de plantes et à maintenir la température de l'eau à 22°. Cependant le barbus doré peut s'adapter à des températures de 18 °C à 25 °C[1].
+Pour son confort, on veillera à placer des massifs de plantes et à maintenir la température de l'eau à 22°. Cependant le barbus doré peut s'adapter à des températures de 18 °C à 25 °C.
 La reproduction peut se faire naturellement en été (juillet-août) lorsque la température monte, car ils supportent mal une eau à 25° en permanence et aussi il est préférable de baisser le chauffage à 18-20 degrés en période hivernale. Les variations de température doivent se faire en douceur et ne pas dépasser 2 degrés, car ils sont sensibles aux changements de température. Cette espèce, peut être maintenu sans chauffage d'aquarium à l'intérieur d'une maison.
 Ils peuvent cohabiter avec des poissons-zèbres, dans un aquarium d'au moins 200 litres.
 </t>
@@ -549,9 +563,11 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La reproduction du barbus doré est jugée facile par les aquariophiles. L'espèce est très prolifique : jusqu'à 300 œufs par ponte[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La reproduction du barbus doré est jugée facile par les aquariophiles. L'espèce est très prolifique : jusqu'à 300 œufs par ponte.
 La température idéale est plus chaude, autour de 25 à 26 °C. L'éclosion a lieu 36 heures après la ponte.
 </t>
         </is>
